--- a/Portfolio allocation/EfficientFrontier-LargeSmallExample.xlsx
+++ b/Portfolio allocation/EfficientFrontier-LargeSmallExample.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\Desktop\Coursera\Week1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jagrawal\Downloads\chrome dowmloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC8337F-487A-431D-9BA3-E02C07FC0EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1970" yWindow="720" windowWidth="16610" windowHeight="9430"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Optimizer" sheetId="1" r:id="rId1"/>
@@ -23,18 +24,18 @@
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Optimizer!$B$29</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Optimizer!$B$29</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Optimizer!$B$33</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Optimizer!$B$29</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">Optimizer!$B$34</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Optimizer!$B$32</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Optimizer!$B$34</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
@@ -42,7 +43,7 @@
     <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">32.11%</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">0.125</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -52,11 +53,24 @@
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -114,7 +128,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -447,6 +461,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -482,6 +513,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -657,28 +705,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
-    <col min="3" max="3" width="13.31640625" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" customWidth="1"/>
-    <col min="5" max="5" width="12.86328125" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" customWidth="1"/>
-    <col min="7" max="7" width="20.453125" customWidth="1"/>
-    <col min="8" max="8" width="11.76953125" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
     <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="12.6796875" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>14</v>
       </c>
@@ -696,7 +744,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -708,7 +756,7 @@
       <c r="G3" s="36"/>
       <c r="H3" s="36"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -732,7 +780,7 @@
       </c>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>8</v>
       </c>
@@ -756,7 +804,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>9</v>
       </c>
@@ -780,7 +828,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -794,7 +842,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -808,7 +856,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -822,12 +870,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="32" t="s">
         <v>8</v>
@@ -839,7 +887,7 @@
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>8</v>
       </c>
@@ -864,7 +912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>9</v>
       </c>
@@ -889,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="27">
         <f>$C$5*$C7*$D7</f>
@@ -912,7 +960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
       <c r="B17" s="27">
         <f>$C$5*$C8*$D8</f>
@@ -935,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="27">
         <f>$C$5*$C9*$D9</f>
@@ -958,12 +1006,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="C22" s="32" t="s">
         <v>8</v>
@@ -975,18 +1023,18 @@
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="17">
         <f>B24</f>
-        <v>0.5</v>
+        <v>0.50010555972787674</v>
       </c>
       <c r="D23" s="17">
         <f>B25</f>
-        <v>0.5</v>
+        <v>0.49989444027212321</v>
       </c>
       <c r="E23" s="17">
         <f>B26</f>
@@ -1001,20 +1049,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="18">
-        <v>0.5</v>
+        <v>0.50010555972787674</v>
       </c>
       <c r="C24" s="25">
         <f t="shared" ref="C24:G28" si="0">$B24*C$23*B14</f>
-        <v>1.5625E-2</v>
+        <v>1.5631598179420805E-2</v>
       </c>
       <c r="D24" s="25">
         <f t="shared" si="0"/>
-        <v>1.2500000000000001E-2</v>
+        <v>1.2499999442857193E-2</v>
       </c>
       <c r="E24" s="25">
         <f t="shared" si="0"/>
@@ -1029,20 +1077,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="19">
-        <v>0.5</v>
+        <v>0.49989444027212321</v>
       </c>
       <c r="C25" s="25">
         <f t="shared" si="0"/>
-        <v>1.2500000000000001E-2</v>
+        <v>1.2499999442857193E-2</v>
       </c>
       <c r="D25" s="25">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>6.2473612853744837E-2</v>
       </c>
       <c r="E25" s="25">
         <f t="shared" si="0"/>
@@ -1057,7 +1105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="30"/>
       <c r="B26" s="19">
         <v>0</v>
@@ -1083,7 +1131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="30"/>
       <c r="B27" s="20">
         <v>0</v>
@@ -1109,7 +1157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="21">
         <v>0</v>
@@ -1135,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>4</v>
       </c>
@@ -1149,7 +1197,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="14"/>
       <c r="C30" s="13"/>
@@ -1158,7 +1206,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -1167,40 +1215,40 @@
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="24">
         <f>SUM(C24:G28)</f>
-        <v>0.10312499999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.65">
+        <v>0.10310520991888003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B33" s="22">
         <f>SQRT(B32)</f>
-        <v>0.32113081446662822</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.65">
+        <v>0.32109999987368426</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="22">
         <f>B24*B5+B25*B6+B26*B7+B27*B8+B9*B28</f>
-        <v>0.11499999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.65">
+        <v>0.11499261081904862</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B35">
         <f>(B34-K2)/B33</f>
-        <v>0.26468964101491776</v>
+        <v>0.26469203006067699</v>
       </c>
     </row>
   </sheetData>
@@ -1213,12 +1261,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
